--- a/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/负债合计.xlsx
+++ b/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/负债合计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,377 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>226.58337</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1038.35353</v>
-      </c>
-      <c r="D2" t="n">
-        <v>194.10416</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.1563</v>
-      </c>
-      <c r="F2" t="n">
-        <v>173.00742</v>
-      </c>
-      <c r="G2" t="n">
-        <v>753.1409</v>
-      </c>
-      <c r="H2" t="n">
-        <v>245.40627</v>
-      </c>
-      <c r="I2" t="n">
-        <v>274.48015</v>
-      </c>
-      <c r="J2" t="n">
-        <v>140.1929</v>
-      </c>
-      <c r="K2" t="n">
-        <v>505.85197</v>
-      </c>
-      <c r="L2" t="n">
-        <v>14658.92</v>
-      </c>
-      <c r="M2" t="n">
-        <v>98.64375</v>
-      </c>
-      <c r="N2" t="n">
-        <v>163.2995</v>
-      </c>
-      <c r="O2" t="n">
-        <v>455.0497</v>
-      </c>
-      <c r="P2" t="n">
-        <v>208.92393</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3.11132</v>
-      </c>
-      <c r="R2" t="n">
-        <v>442.1905</v>
-      </c>
-      <c r="S2" t="n">
-        <v>162.87532</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>253.80082</v>
-      </c>
-      <c r="V2" t="n">
-        <v>5.23441</v>
-      </c>
-      <c r="W2" t="n">
-        <v>25.55011</v>
-      </c>
-      <c r="X2" t="n">
-        <v>6.28645</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1241.92067</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>2508.91648</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>931.06489</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>322.15623</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>114.75018</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>3.82703</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>731.6763999999999</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>19.54878</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>577.66584</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>583.77943</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>713.24096</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>10.46463</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>349.53213</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>457.94041</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>433.20759</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>282.40973</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.57431</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>239.49796</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1061.52617</v>
-      </c>
-      <c r="D3" t="n">
-        <v>186.3861</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>175.70056</v>
-      </c>
-      <c r="G3" t="n">
-        <v>799.27067</v>
-      </c>
-      <c r="H3" t="n">
-        <v>185.21677</v>
-      </c>
-      <c r="I3" t="n">
-        <v>305.61869</v>
-      </c>
-      <c r="J3" t="n">
-        <v>204.28816</v>
-      </c>
-      <c r="K3" t="n">
-        <v>535.84784</v>
-      </c>
-      <c r="L3" t="n">
-        <v>15558.91</v>
-      </c>
-      <c r="M3" t="n">
-        <v>108.64945</v>
-      </c>
-      <c r="N3" t="n">
-        <v>172.85333</v>
-      </c>
-      <c r="O3" t="n">
-        <v>489.95527</v>
-      </c>
-      <c r="P3" t="n">
-        <v>190.11195</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3.68315</v>
-      </c>
-      <c r="R3" t="n">
-        <v>456.30977</v>
-      </c>
-      <c r="S3" t="n">
-        <v>163.22808</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>269.0787</v>
-      </c>
-      <c r="V3" t="n">
-        <v>5.18046</v>
-      </c>
-      <c r="W3" t="n">
-        <v>22.51611</v>
-      </c>
-      <c r="X3" t="n">
-        <v>12.16756</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1390.36548</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>2837.46095</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>947.88491</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>334.04356</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>206.43456</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>5.16901</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>753.8944300000001</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>23.34759</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>595.42835</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>623.05453</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>699.06397</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>9.46523</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>381.92869</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>458.50306</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>406.80601</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>298.42347</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.54637</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>295.55563</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1178.82529</v>
-      </c>
-      <c r="D4" t="n">
-        <v>239.93256</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>208.14967</v>
-      </c>
-      <c r="G4" t="n">
-        <v>872.07972</v>
-      </c>
-      <c r="H4" t="n">
-        <v>199.96457</v>
-      </c>
-      <c r="I4" t="n">
-        <v>336.63852</v>
-      </c>
-      <c r="J4" t="n">
-        <v>175.16498</v>
-      </c>
-      <c r="K4" t="n">
-        <v>591.63033</v>
-      </c>
-      <c r="L4" t="n">
-        <v>17136.03</v>
-      </c>
-      <c r="M4" t="n">
-        <v>122.42315</v>
-      </c>
-      <c r="N4" t="n">
-        <v>200.11146</v>
-      </c>
-      <c r="O4" t="n">
-        <v>578.78183</v>
-      </c>
-      <c r="P4" t="n">
-        <v>231.15065</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4.63517</v>
-      </c>
-      <c r="R4" t="n">
-        <v>498.71328</v>
-      </c>
-      <c r="S4" t="n">
-        <v>166.28703</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>277.46574</v>
-      </c>
-      <c r="V4" t="n">
-        <v>5.76424</v>
-      </c>
-      <c r="W4" t="n">
-        <v>38.92363</v>
-      </c>
-      <c r="X4" t="n">
-        <v>14.07674</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1310.82179</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>3416.52614</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>973.73429</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>389.76829</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>227.13817</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>10.53677</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>822.15873</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>33.97059</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>623.8751600000001</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>658.32593</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>744.61587</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>10.53136</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>422.93139</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>512.63933</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>418.20165</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>317.83912</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>1.018</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
